--- a/INTLINE/data/144/RKB/RKB.xlsx
+++ b/INTLINE/data/144/RKB/RKB.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Interest rates and exchange rates</t>
   </si>
   <si>
-    <t>ADVANCED RESULT 02/01/2012 - 31/03/2022</t>
+    <t>ADVANCED RESULT 02/01/2012 - 17/06/2022</t>
   </si>
   <si>
     <t>Swedish Government Bonds</t>
@@ -410,7 +410,10 @@
     <t>2022 March</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>2022 April</t>
+  </si>
+  <si>
+    <t>2022 May</t>
   </si>
   <si>
     <t/>
@@ -499,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2263,29 +2266,47 @@
       <c r="A128" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>132</v>
+      <c r="B128" s="4">
+        <v>0.8205</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1.3226</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1.6786</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1.4715</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1.9538</v>
+      </c>
+      <c r="D129" s="4">
+        <v>2.2496</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>134</v>
+      <c r="B130" s="4">
+        <v>1.7656</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2.5008</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2.7885</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
@@ -2295,57 +2316,67 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>140</v>
+      <c r="A140" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/144/RKB/RKB.xlsx
+++ b/INTLINE/data/144/RKB/RKB.xlsx
@@ -17,7 +17,7 @@
     <t>Interest rates and exchange rates</t>
   </si>
   <si>
-    <t>ADVANCED RESULT 02/01/2012 - 17/06/2022</t>
+    <t>ADVANCED RESULT 02/01/2012 - 28/06/2022</t>
   </si>
   <si>
     <t>Swedish Government Bonds</t>
